--- a/examples/web-stuff/artifact/data/SwitchBrowser.data.xlsx
+++ b/examples/web-stuff/artifact/data/SwitchBrowser.data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lium183/projects/nexial/tutorials/examples/web-stuff/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC34E0D-277E-A447-8333-355C063873FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AB0900-D00D-A34F-9DF5-80C1750B2E2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="16240" windowWidth="17060" windowHeight="15760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,6 +102,12 @@
     <t>gmx.password</t>
   </si>
   <si>
+    <t>crypt:83143864cc160a6809f60310a0bdc8f0f813749dd9794745dedd8d2737dd212a</t>
+  </si>
+  <si>
+    <t>crypt:f93945e444151ceb49424381d488222e2fd873008e7be69e</t>
+  </si>
+  <si>
     <t>test.user1@mailinator.com</t>
   </si>
   <si>
@@ -149,12 +155,6 @@
   </si>
   <si>
     <t>test.user1</t>
-  </si>
-  <si>
-    <t>&lt;your encrypted GMX password here&gt;</t>
-  </si>
-  <si>
-    <t>&lt;your encrypted GMX username here&gt;</t>
   </si>
 </sst>
 </file>
@@ -674,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AAA201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -778,20 +778,20 @@
     </row>
     <row r="10" spans="1:703" ht="36" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="HA10" s="6"/>
       <c r="AAA10" s="7"/>
     </row>
     <row r="11" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="HA11" s="6"/>
       <c r="AAA11" s="7"/>
@@ -801,15 +801,15 @@
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -817,47 +817,47 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.25">
